--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>855509.6763285928</v>
+        <v>781668.4833929506</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298022</v>
+        <v>405687.0519298021</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7626808.246901145</v>
+        <v>7626808.246901144</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>80.33470701582003</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>132.1650052697847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112.3289263072337</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>212.7284443070715</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>128.0664365388984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>77.98749977698934</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>51.57670218370638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>78.3588309148798</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.9937234637968</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>256.8190688894574</v>
+        <v>291.0942582390574</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
@@ -1736,7 +1736,7 @@
         <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>10.65802162672473</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>145.1297485501648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9937234637968</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.2062988327028</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>8.986358872088125</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>257.4469022752985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>88.41081364499567</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>54.47249754818038</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>47.38698117337069</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.08568265613039</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>91.12051252314794</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>220.244010718377</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>39.39461191774075</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207136</v>
       </c>
       <c r="S21" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V21" t="n">
-        <v>51.12519878778868</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.4889314870304</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>228.2062988327027</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>12.27152410635501</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>45.24972634440779</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.29997400339114</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.39108932486009</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>147.6675588132787</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>41.68001987778678</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>134.6751203255735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>96.4492082150619</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>172.3816112472387</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>78.40333552909871</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>120.2570633735995</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>289.9093286709409</v>
+        <v>24.25641376481842</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>230.2634979541055</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>52.17142175228565</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>150.2073424562174</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.528339751611</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3401,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.33263748886699</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>186.9955665541455</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>217.3616991692018</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
         <v>61.42221998250818</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.4619242480334</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>110.1458031968976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>122.5915982230237</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>146.0234081881614</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>241.7627700121617</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>186.8185428348307</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>113.2870337730222</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,10 +4415,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V3" t="n">
-        <v>353.783681549942</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W3" t="n">
-        <v>110.334904905842</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X3" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.334904905842</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4512,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>376.1934816808115</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>376.1934816808115</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>373.5759998482816</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="7">
@@ -4743,16 +4743,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4837,19 +4837,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.254503824239</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="C11" t="n">
-        <v>1719.254503824239</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.894466916261</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.106214318017</v>
+        <v>793.1203095284093</v>
       </c>
       <c r="F11" t="n">
         <v>793.1203095284093</v>
@@ -5035,16 +5035,16 @@
         <v>374.642865954865</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
         <v>683.321988080341</v>
@@ -5056,37 +5056,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.393835800051</v>
+        <v>1943.325239829423</v>
       </c>
       <c r="W11" t="n">
-        <v>2109.393835800051</v>
+        <v>1943.325239829423</v>
       </c>
       <c r="X11" t="n">
-        <v>2109.393835800051</v>
+        <v>1569.859481568343</v>
       </c>
       <c r="Y11" t="n">
-        <v>1719.254503824239</v>
+        <v>1179.720149592531</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>820.7924871414341</v>
+        <v>444.7256499158337</v>
       </c>
       <c r="C12" t="n">
-        <v>646.3394578603071</v>
+        <v>270.2726206347066</v>
       </c>
       <c r="D12" t="n">
-        <v>594.2417788868663</v>
+        <v>121.3382109734554</v>
       </c>
       <c r="E12" t="n">
-        <v>435.0043238814109</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F12" t="n">
-        <v>288.4697659082958</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G12" t="n">
-        <v>150.2848336490975</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J12" t="n">
-        <v>91.99734226147163</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K12" t="n">
         <v>303.7504955284376</v>
       </c>
       <c r="L12" t="n">
-        <v>649.8831383448789</v>
+        <v>371.2691274247622</v>
       </c>
       <c r="M12" t="n">
-        <v>1105.782828129934</v>
+        <v>827.1688172098177</v>
       </c>
       <c r="N12" t="n">
-        <v>1589.455839519192</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O12" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
@@ -5150,10 +5150,10 @@
         <v>1946.116217237204</v>
       </c>
       <c r="T12" t="n">
-        <v>1746.129955106378</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U12" t="n">
-        <v>1517.942250866332</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V12" t="n">
         <v>1282.79014263459</v>
@@ -5162,10 +5162,10 @@
         <v>1028.552785906388</v>
       </c>
       <c r="X12" t="n">
-        <v>1028.552785906388</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y12" t="n">
-        <v>820.7924871414341</v>
+        <v>612.9409869359017</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
-        <v>407.1880976177522</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H13" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842137</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842137</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1414.617545759849</v>
+        <v>1465.451627624593</v>
       </c>
       <c r="C14" t="n">
-        <v>1045.655028819438</v>
+        <v>1465.451627624593</v>
       </c>
       <c r="D14" t="n">
-        <v>687.3893302126871</v>
+        <v>1465.451627624593</v>
       </c>
       <c r="E14" t="n">
-        <v>301.6010776144429</v>
+        <v>1079.663375026349</v>
       </c>
       <c r="F14" t="n">
-        <v>301.6010776144429</v>
+        <v>668.6774702367411</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600102</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
         <v>683.321988080341</v>
@@ -5293,37 +5293,37 @@
         <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>2022.100492129411</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1801.217385823971</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="V14" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="W14" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="X14" t="n">
-        <v>1801.217385823971</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="Y14" t="n">
-        <v>1801.217385823971</v>
+        <v>1465.451627624593</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.6808120253413</v>
+        <v>529.961321793028</v>
       </c>
       <c r="C15" t="n">
-        <v>814.6808120253413</v>
+        <v>529.961321793028</v>
       </c>
       <c r="D15" t="n">
-        <v>665.74640236409</v>
+        <v>381.0269121317768</v>
       </c>
       <c r="E15" t="n">
-        <v>506.5089473586346</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="F15" t="n">
-        <v>359.9743893855196</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="G15" t="n">
         <v>221.7894571263213</v>
@@ -5354,55 +5354,55 @@
         <v>113.6925001932248</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147163</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K15" t="n">
-        <v>91.99734226147163</v>
+        <v>303.7504955284376</v>
       </c>
       <c r="L15" t="n">
-        <v>438.129985077913</v>
+        <v>371.2691274247622</v>
       </c>
       <c r="M15" t="n">
-        <v>894.0296748629685</v>
+        <v>827.1688172098177</v>
       </c>
       <c r="N15" t="n">
-        <v>1377.702686252226</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O15" t="n">
-        <v>1753.753320229596</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2038.564039528555</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525231</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962384</v>
+        <v>2031.351889114399</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.853686831559</v>
+        <v>1831.365626983573</v>
       </c>
       <c r="U15" t="n">
-        <v>1450.665982591513</v>
+        <v>1603.177922743527</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.51387435977</v>
+        <v>1368.025814511784</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315684</v>
+        <v>1113.788457783583</v>
       </c>
       <c r="X15" t="n">
-        <v>814.6808120253413</v>
+        <v>905.9369575780499</v>
       </c>
       <c r="Y15" t="n">
-        <v>814.6808120253413</v>
+        <v>698.1766588130961</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G16" t="n">
-        <v>407.1880976177522</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H16" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I16" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L16" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842137</v>
+        <v>272.6992896783271</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3837778842137</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.18787671600103</v>
+        <v>822.1362984460203</v>
       </c>
       <c r="C17" t="n">
-        <v>42.18787671600103</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="D17" t="n">
-        <v>42.18787671600103</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="E17" t="n">
-        <v>42.18787671600103</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K17" t="n">
         <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803413</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5536,31 +5536,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826068</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U17" t="n">
-        <v>1359.532553626421</v>
+        <v>1879.433599320785</v>
       </c>
       <c r="V17" t="n">
-        <v>1028.46966628285</v>
+        <v>1548.370711977214</v>
       </c>
       <c r="W17" t="n">
-        <v>675.701011012736</v>
+        <v>1195.6020567071</v>
       </c>
       <c r="X17" t="n">
-        <v>302.2352527516561</v>
+        <v>822.1362984460203</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.18787671600103</v>
+        <v>822.1362984460203</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.4493816410141</v>
+        <v>522.4129189756985</v>
       </c>
       <c r="C18" t="n">
-        <v>202.9963523598871</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="D18" t="n">
-        <v>113.6925001932248</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E18" t="n">
-        <v>113.6925001932248</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H18" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147164</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K18" t="n">
-        <v>303.7504955284376</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="L18" t="n">
-        <v>371.2691274247622</v>
+        <v>388.3205195324425</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098177</v>
+        <v>844.2202093174981</v>
       </c>
       <c r="N18" t="n">
-        <v>1310.841828599075</v>
+        <v>1327.893220706756</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.892462576445</v>
+        <v>1703.943854684126</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875405</v>
+        <v>1988.754573983085</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R18" t="n">
         <v>2042.117567525232</v>
@@ -5624,22 +5624,22 @@
         <v>1878.839948962385</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.853686831559</v>
+        <v>1823.817224166243</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591513</v>
+        <v>1595.629519926197</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.51387435977</v>
+        <v>1360.477411694455</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315688</v>
+        <v>1106.240054966253</v>
       </c>
       <c r="X18" t="n">
-        <v>753.425017426036</v>
+        <v>898.3885547607204</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610821</v>
+        <v>690.6282559957665</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="C19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="D19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="E19" t="n">
-        <v>54.3956369747186</v>
+        <v>90.05351426486033</v>
       </c>
       <c r="F19" t="n">
-        <v>54.3956369747186</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G19" t="n">
-        <v>54.3956369747186</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H19" t="n">
-        <v>54.3956369747186</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I19" t="n">
-        <v>54.3956369747186</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S19" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T19" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U19" t="n">
-        <v>309.0801251806055</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="V19" t="n">
-        <v>54.3956369747186</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="W19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="X19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="Y19" t="n">
-        <v>54.3956369747186</v>
+        <v>237.9666078472534</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1332.654663760118</v>
+        <v>829.6278372299571</v>
       </c>
       <c r="C20" t="n">
-        <v>963.6921468197063</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="D20" t="n">
-        <v>963.6921468197063</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="E20" t="n">
-        <v>963.6921468197063</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F20" t="n">
-        <v>552.7062420300988</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G20" t="n">
-        <v>134.2287984565545</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O20" t="n">
         <v>1777.842707170708</v>
@@ -5773,31 +5773,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="U20" t="n">
-        <v>2109.393835800051</v>
+        <v>1886.925138104722</v>
       </c>
       <c r="V20" t="n">
-        <v>2109.393835800051</v>
+        <v>1555.862250761151</v>
       </c>
       <c r="W20" t="n">
-        <v>2109.393835800051</v>
+        <v>1203.093595491037</v>
       </c>
       <c r="X20" t="n">
-        <v>2109.393835800051</v>
+        <v>829.6278372299571</v>
       </c>
       <c r="Y20" t="n">
-        <v>1719.25450382424</v>
+        <v>829.6278372299571</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>989.1338413064683</v>
+        <v>377.4493816410146</v>
       </c>
       <c r="C21" t="n">
-        <v>814.6808120253413</v>
+        <v>377.4493816410146</v>
       </c>
       <c r="D21" t="n">
-        <v>665.74640236409</v>
+        <v>228.5149719797633</v>
       </c>
       <c r="E21" t="n">
-        <v>506.5089473586346</v>
+        <v>228.5149719797633</v>
       </c>
       <c r="F21" t="n">
-        <v>359.9743893855196</v>
+        <v>81.98041400664826</v>
       </c>
       <c r="G21" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H21" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147166</v>
+        <v>91.99734226147169</v>
       </c>
       <c r="K21" t="n">
         <v>303.7504955284377</v>
       </c>
       <c r="L21" t="n">
-        <v>649.8831383448791</v>
+        <v>649.8831383448792</v>
       </c>
       <c r="M21" t="n">
-        <v>1105.782828129934</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N21" t="n">
-        <v>1448.532482523722</v>
+        <v>1589.455839519193</v>
       </c>
       <c r="O21" t="n">
-        <v>1824.583116501092</v>
+        <v>1965.506473496563</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R21" t="n">
         <v>2042.117567525232</v>
@@ -5861,22 +5861,22 @@
         <v>1878.839948962385</v>
       </c>
       <c r="T21" t="n">
-        <v>1878.839948962385</v>
+        <v>1678.85368683156</v>
       </c>
       <c r="U21" t="n">
-        <v>1878.839948962385</v>
+        <v>1450.665982591514</v>
       </c>
       <c r="V21" t="n">
-        <v>1827.198334025225</v>
+        <v>1215.513874359771</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.960977297023</v>
+        <v>961.2765176315693</v>
       </c>
       <c r="X21" t="n">
-        <v>1365.10947709149</v>
+        <v>753.4250174260364</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.349178326536</v>
+        <v>545.6647186610826</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="C22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="D22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="E22" t="n">
-        <v>1624.197934631839</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="F22" t="n">
-        <v>1624.197934631839</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G22" t="n">
-        <v>1624.197934631839</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H22" t="n">
-        <v>1624.197934631839</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I22" t="n">
-        <v>1624.197934631839</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J22" t="n">
-        <v>1624.197934631839</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K22" t="n">
-        <v>1654.264618002856</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L22" t="n">
-        <v>1748.266055723941</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>1857.766514921218</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>1970.097914366198</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O22" t="n">
-        <v>2057.837847602999</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P22" t="n">
-        <v>2109.393835800051</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q22" t="n">
-        <v>2109.393835800051</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R22" t="n">
-        <v>2109.393835800051</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S22" t="n">
-        <v>2109.393835800051</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="T22" t="n">
-        <v>2109.393835800051</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="U22" t="n">
-        <v>2109.393835800051</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="V22" t="n">
-        <v>1854.709347594164</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="W22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="X22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="Y22" t="n">
-        <v>1624.197934631839</v>
+        <v>336.9909177963045</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035243</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082162</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>928.5994889990657</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>517.6135842094582</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>99.64977610764504</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>270.0191909330953</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>119.9025515207595</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W25" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X25" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>534.603677789272</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C26" t="n">
-        <v>534.603677789272</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D26" t="n">
-        <v>534.603677789272</v>
+        <v>1359.246564992226</v>
       </c>
       <c r="E26" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y26" t="n">
-        <v>546.109828622464</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>698.7120650600561</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="C28" t="n">
-        <v>698.7120650600561</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D28" t="n">
-        <v>698.7120650600561</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E28" t="n">
-        <v>698.7120650600561</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F28" t="n">
-        <v>562.6765899837193</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G28" t="n">
-        <v>393.6767897220517</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036445</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>808.6937513590203</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C29" t="n">
-        <v>439.7312344186087</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D29" t="n">
-        <v>439.7312344186087</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>715.8183052563591</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>304.8324004667515</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>304.8324004667515</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2523.026251374547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2269.264466012638</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>1938.201578669068</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W29" t="n">
-        <v>1585.432923398954</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X29" t="n">
-        <v>1585.432923398954</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y29" t="n">
-        <v>1195.293591423142</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="30">
@@ -6521,22 +6521,22 @@
         <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6545,22 +6545,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005474</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005474</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>323.3278565882116</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>175.4147630058185</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>175.4147630058185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005474</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>764.7444956504007</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C32" t="n">
-        <v>764.7444956504007</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D32" t="n">
-        <v>764.7444956504007</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="E32" t="n">
-        <v>764.7444956504007</v>
+        <v>907.3941227570563</v>
       </c>
       <c r="F32" t="n">
-        <v>764.7444956504007</v>
+        <v>496.4082179674487</v>
       </c>
       <c r="G32" t="n">
-        <v>346.7806875485876</v>
+        <v>78.44440986563558</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V32" t="n">
-        <v>1881.118241157406</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W32" t="n">
-        <v>1528.349585887292</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X32" t="n">
-        <v>1154.883827626212</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y32" t="n">
-        <v>764.7444956504007</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2482.860667836385</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2255.552480504987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>675.4305783960447</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>675.4305783960447</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1992.620445413571</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="C35" t="n">
-        <v>1623.65792847316</v>
+        <v>1034.617283051399</v>
       </c>
       <c r="D35" t="n">
-        <v>1265.392229866409</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E35" t="n">
-        <v>879.603977268165</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>468.6180724785574</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674651</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>2366.086203674651</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X35" t="n">
-        <v>1992.620445413571</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y35" t="n">
-        <v>1992.620445413571</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="36">
@@ -7013,40 +7013,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>2486.040172362641</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2549.002432452406</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2549.002432452406</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>2549.002432452406</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V37" t="n">
-        <v>2549.002432452406</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>2549.002432452406</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>945.5895825788796</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="C38" t="n">
-        <v>945.5895825788796</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D38" t="n">
-        <v>945.5895825788796</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F38" t="n">
         <v>534.603677789272</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2058.423836174195</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2058.423836174195</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>1705.655180904081</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>1332.189422643001</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y38" t="n">
-        <v>1332.189422643001</v>
+        <v>892.8693763960225</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7253,22 +7253,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036445</v>
@@ -7353,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>409.2948950230955</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2573.319193823249</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U41" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V41" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W41" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="42">
@@ -7472,22 +7472,22 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7505,10 +7505,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2401.504040343153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2401.504040343153</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>2401.504040343153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>2401.504040343153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>2401.504040343153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1993.54646147304</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C44" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D44" t="n">
         <v>1749.341643278937</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.54646147304</v>
+        <v>2508.443492195161</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.54646147304</v>
+        <v>2508.443492195161</v>
       </c>
       <c r="Y44" t="n">
-        <v>1993.54646147304</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
         <v>2188.831293537796</v>
@@ -7751,25 +7751,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>318.4909684781771</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C46" t="n">
-        <v>318.4909684781771</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D46" t="n">
-        <v>168.3743290658414</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E46" t="n">
-        <v>168.3743290658414</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>168.3743290658414</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7848,10 +7848,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>89.41205144475541</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>251.5154940287796</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.9958191250947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>50.57316300554226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>89.41205144475541</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.5410678841811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>50.5731630055422</v>
       </c>
       <c r="L18" t="n">
-        <v>89.41205144475542</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>192.8536593442531</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>336.9955490956041</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>37.03447478123316</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509468</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11153,10 +11153,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783514</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>284.9381847551875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,28 +22594,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22646,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>117.1328366372799</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>100.6355818796406</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>270.4049153562469</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>20.07214284235374</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>153.0645313606844</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>226.6166050817846</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
@@ -23317,13 +23317,13 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>249.7647586931456</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>95.86836338093238</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>79.28624954052114</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
         <v>70.78957724245151</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.54417399343916</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>24.76370953215502</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>157.4736002483514</v>
+        <v>123.1984108987515</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>150.9868207504939</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>60.6432366533127</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>48.54417399343916</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23712,10 +23712,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>58.3166995038882</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.2926691378088</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>242.2784885655623</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>128.7910363807551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>59.03425191964308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.8030829366063</v>
@@ -23831,7 +23831,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>143.5139019613371</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>98.03406684956056</v>
       </c>
       <c r="G19" t="n">
         <v>167.537897457236</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>49.24060704409377</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
         <v>226.0096940321479</v>
@@ -23949,10 +23949,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>238.0099268233273</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T20" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>31.02083671927338</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>97.40847101886558</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>181.6753883616366</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.537897457236</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
-        <v>216.1206161765721</v>
+        <v>27.63168468954169</v>
       </c>
       <c r="T22" t="n">
         <v>226.0096940321479</v>
@@ -24186,10 +24186,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>58.31669950388832</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>353.0013676646525</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>278.6730464199493</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24262,7 +24262,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>81.13398864317803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>371.3427523386205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>234.262811258983</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>138.1519603041505</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>227.4735645492952</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>44.06670911041911</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>88.84348556952912</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>47.05273888545142</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>34.0134440934163</v>
+        <v>299.6663589995387</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24976,10 +24976,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25125,13 +25125,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>56.01837628787223</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>173.5382336367515</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>204.4756991644656</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.255830269183946</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25207,7 +25207,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.08841053406425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>64.22860095414381</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>168.8762394868518</v>
       </c>
     </row>
     <row r="39">
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>151.8478780110175</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25648,7 +25648,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>41.78551304796362</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.82411458594783</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>79.01169726992291</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>112.9202716085213</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>162.4224258825823</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.02276848602872</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>663002.677781257</v>
+        <v>663002.6777812571</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>663002.6777812572</v>
+        <v>663002.6777812567</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>663002.677781257</v>
+        <v>663002.6777812572</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159029</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767171.0727159029</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159029</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159029</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159028</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166160.6725313325</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
         <v>166160.6725313324</v>
@@ -26322,10 +26322,10 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862712</v>
       </c>
       <c r="F2" t="n">
-        <v>247828.6760862711</v>
+        <v>247828.6760862712</v>
       </c>
       <c r="G2" t="n">
         <v>247828.6760862712</v>
@@ -26334,10 +26334,10 @@
         <v>247828.6760862712</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
@@ -26346,16 +26346,16 @@
         <v>289152.6100157575</v>
       </c>
       <c r="M2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="N2" t="n">
+        <v>289152.6100157573</v>
+      </c>
+      <c r="O2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="P2" t="n">
         <v>289152.6100157576</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134255</v>
+        <v>287351.7100134256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.32519718148824e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116921</v>
+        <v>134288.701511692</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.6205187108</v>
+        <v>71355.62051871081</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>43830.75094230082</v>
+        <v>43830.75094230083</v>
       </c>
       <c r="F4" t="n">
-        <v>43830.75094230082</v>
+        <v>43830.75094230083</v>
       </c>
       <c r="G4" t="n">
         <v>43830.75094230083</v>
       </c>
       <c r="H4" t="n">
-        <v>43830.75094230083</v>
+        <v>43830.75094230082</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
         <v>44802.65617556861</v>
@@ -26450,13 +26450,13 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
         <v>44802.6561755686</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="F5" t="n">
-        <v>37540.13459730638</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="G5" t="n">
         <v>37540.13459730639</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4907.453119873077</v>
+        <v>-17125.46373991366</v>
       </c>
       <c r="C6" t="n">
-        <v>75861.97841167453</v>
+        <v>63643.96779163407</v>
       </c>
       <c r="D6" t="n">
-        <v>75861.97841167453</v>
+        <v>63643.96779163412</v>
       </c>
       <c r="E6" t="n">
-        <v>-120893.9194667616</v>
+        <v>-129028.5299090552</v>
       </c>
       <c r="F6" t="n">
-        <v>166457.7905466639</v>
+        <v>158323.1801043705</v>
       </c>
       <c r="G6" t="n">
-        <v>166457.7905466639</v>
+        <v>158323.1801043705</v>
       </c>
       <c r="H6" t="n">
-        <v>166457.790546664</v>
+        <v>158323.1801043705</v>
       </c>
       <c r="I6" t="n">
-        <v>60829.77426508737</v>
+        <v>54761.36051926804</v>
       </c>
       <c r="J6" t="n">
-        <v>132058.5331776733</v>
+        <v>125990.1194318539</v>
       </c>
       <c r="K6" t="n">
-        <v>195118.4757767795</v>
+        <v>189050.0620309603</v>
       </c>
       <c r="L6" t="n">
-        <v>195118.4757767794</v>
+        <v>189050.0620309602</v>
       </c>
       <c r="M6" t="n">
-        <v>123762.8552580687</v>
+        <v>117694.4415122493</v>
       </c>
       <c r="N6" t="n">
-        <v>195118.4757767793</v>
+        <v>189050.06203096</v>
       </c>
       <c r="O6" t="n">
-        <v>195118.4757767795</v>
+        <v>189050.0620309603</v>
       </c>
       <c r="P6" t="n">
-        <v>195118.4757767793</v>
+        <v>189050.0620309603</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571965</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045427</v>
+        <v>146.9388138045425</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.213199256248332e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J11" t="n">
         <v>85.72829094008885</v>
@@ -31776,16 +31776,16 @@
         <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721638</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S11" t="n">
         <v>23.01693314832059</v>
@@ -31837,16 +31837,16 @@
         <v>5.219456872730926</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632919</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881675</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227526</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H13" t="n">
         <v>4.028309994507749</v>
@@ -31922,7 +31922,7 @@
         <v>32.03289041644861</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933434</v>
       </c>
       <c r="L13" t="n">
         <v>67.36092193269907</v>
@@ -31934,19 +31934,19 @@
         <v>69.33388766620546</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970453</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R13" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400149</v>
+        <v>7.89598186040015</v>
       </c>
       <c r="T13" t="n">
         <v>1.935895396133579</v>
@@ -31995,7 +31995,7 @@
         <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
         <v>85.72829094008885</v>
@@ -32013,16 +32013,16 @@
         <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721638</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S14" t="n">
         <v>23.01693314832059</v>
@@ -32074,16 +32074,16 @@
         <v>5.219456872730926</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632919</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881675</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227526</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H16" t="n">
         <v>4.028309994507749</v>
@@ -32159,7 +32159,7 @@
         <v>32.03289041644861</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933434</v>
       </c>
       <c r="L16" t="n">
         <v>67.36092193269907</v>
@@ -32171,19 +32171,19 @@
         <v>69.33388766620546</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970453</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R16" t="n">
         <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400149</v>
+        <v>7.89598186040015</v>
       </c>
       <c r="T16" t="n">
         <v>1.935895396133579</v>
@@ -32229,46 +32229,46 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008885</v>
+        <v>85.7282909400889</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
         <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721638</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745404</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632919</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881679</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N18" t="n">
         <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P18" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227526</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269907</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620546</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970453</v>
+        <v>54.79819648970456</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400149</v>
+        <v>7.895981860400154</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686803</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008891</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O20" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721642</v>
       </c>
       <c r="S20" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745405</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042923</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I21" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881681</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P21" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>68.98595496092686</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S21" t="n">
         <v>10.03832872661919</v>
@@ -32584,7 +32584,7 @@
         <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922977</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H22" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507752</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644862</v>
+        <v>32.03289041644863</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933437</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269911</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985389</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620547</v>
+        <v>69.3338876662055</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464877</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970457</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784343</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400155</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34783,13 +34783,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35020,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
         <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526489</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
         <v>320.887128151277</v>
@@ -35430,7 +35430,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743894</v>
+        <v>99.08532226743895</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007133</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K12" t="n">
         <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>68.20063827911578</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
@@ -35503,13 +35503,13 @@
         <v>488.5585973628865</v>
       </c>
       <c r="O12" t="n">
-        <v>237.5022999817169</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345149</v>
       </c>
       <c r="L13" t="n">
         <v>94.95094719301521</v>
@@ -35582,10 +35582,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459802</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
         <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526489</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
         <v>320.887128151277</v>
@@ -35667,7 +35667,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743894</v>
+        <v>99.08532226743895</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007133</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>68.20063827911578</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35746,7 +35746,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.54524875908639</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345149</v>
       </c>
       <c r="L16" t="n">
         <v>94.95094719301521</v>
@@ -35819,10 +35819,10 @@
         <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459802</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547638</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526489</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743894</v>
+        <v>99.085322267439</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007133</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070363</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.20063827911578</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N18" t="n">
         <v>488.5585973628865</v>
@@ -35983,7 +35983,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.0814686107544</v>
+        <v>121.8578402191584</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459802</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547639</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784908</v>
@@ -36129,19 +36129,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N20" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743901</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007134</v>
+        <v>50.31259146007137</v>
       </c>
       <c r="K21" t="n">
         <v>213.8920740070364</v>
@@ -36208,19 +36208,19 @@
         <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N21" t="n">
-        <v>346.2117721149371</v>
+        <v>488.5585973628866</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>6.259301392769931</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301522</v>
+        <v>94.95094719301525</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N22" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868844</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459805</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N26" t="n">
         <v>478.8956552492236</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37165,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37636,10 +37636,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,10 +37873,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
